--- a/MemoryManagerBV201/Benchmarks/64-bit/2021-05-20.xlsx
+++ b/MemoryManagerBV201/Benchmarks/64-bit/2021-05-20.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git.1\FastCodeBenchmark\MemoryManagerBV201\Benchmarks\64-bit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0613105F-EA72-4A32-B2B8-F738FAAE52B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2808059-1999-42C9-A2A2-9F60F90ED4B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2880" windowWidth="21600" windowHeight="11535"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-05-20" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>Fragmentation Test</t>
   </si>
   <si>
-    <t>FastMM4</t>
-  </si>
-  <si>
     <t>20210520 03:49:32.502</t>
   </si>
   <si>
@@ -491,12 +488,15 @@
   </si>
   <si>
     <t>20210520 04:14:05.528</t>
+  </si>
+  <si>
+    <t>FastMM4-AVX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1365,11 +1365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1406,10 +1406,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>11005</v>
@@ -1418,18 +1418,18 @@
         <v>117984</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>1205</v>
@@ -1438,18 +1438,18 @@
         <v>38348</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="4">
         <v>3338</v>
@@ -1458,18 +1458,18 @@
         <v>92108</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>11750</v>
@@ -1478,18 +1478,18 @@
         <v>1224332</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>14293</v>
@@ -1498,18 +1498,18 @@
         <v>156556</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="4">
         <v>4012</v>
@@ -1518,18 +1518,18 @@
         <v>51276</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="4">
         <v>6680</v>
@@ -1538,18 +1538,18 @@
         <v>125452</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="4">
         <v>12670</v>
@@ -1558,18 +1558,18 @@
         <v>125452</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D10" s="4">
         <v>17749</v>
@@ -1578,18 +1578,18 @@
         <v>438156</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D11" s="4">
         <v>19594</v>
@@ -1598,18 +1598,18 @@
         <v>110540</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="4">
         <v>12720</v>
@@ -1618,18 +1618,18 @@
         <v>508556</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D13" s="4">
         <v>12858</v>
@@ -1638,18 +1638,18 @@
         <v>308428</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D14" s="4">
         <v>14136</v>
@@ -1658,18 +1658,18 @@
         <v>2620748</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D15" s="4">
         <v>13650</v>
@@ -1678,18 +1678,18 @@
         <v>3514380</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D16" s="4">
         <v>4121</v>
@@ -1698,18 +1698,18 @@
         <v>432524</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D17" s="4">
         <v>7289</v>
@@ -1718,18 +1718,18 @@
         <v>47308</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D18" s="4">
         <v>13737</v>
@@ -1738,18 +1738,18 @@
         <v>598668</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D19" s="4">
         <v>44765</v>
@@ -1758,18 +1758,18 @@
         <v>56460</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D20" s="4">
         <v>48205</v>
@@ -1778,18 +1778,18 @@
         <v>58252</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D21" s="4">
         <v>8292</v>
@@ -1798,18 +1798,18 @@
         <v>55180</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D22" s="4">
         <v>8868</v>
@@ -1818,18 +1818,18 @@
         <v>55180</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D23" s="4">
         <v>10801</v>
@@ -1838,18 +1838,18 @@
         <v>55180</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D24" s="4">
         <v>8428</v>
@@ -1858,18 +1858,18 @@
         <v>71564</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D25" s="4">
         <v>8130</v>
@@ -1878,18 +1878,18 @@
         <v>71564</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D26" s="4">
         <v>3265</v>
@@ -1898,18 +1898,18 @@
         <v>59980</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D27" s="4">
         <v>4074</v>
@@ -1918,18 +1918,18 @@
         <v>55180</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D28" s="4">
         <v>3802</v>
@@ -1938,18 +1938,18 @@
         <v>62348</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D29" s="4">
         <v>3583</v>
@@ -1958,18 +1958,18 @@
         <v>62348</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="D30" s="4">
         <v>10149</v>
@@ -1978,18 +1978,18 @@
         <v>788876</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D31" s="4">
         <v>27699</v>
@@ -1998,18 +1998,18 @@
         <v>54156</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="D32" s="4">
         <v>35754</v>
@@ -2018,18 +2018,18 @@
         <v>62604</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="D33" s="4">
         <v>34428</v>
@@ -2038,18 +2038,18 @@
         <v>82060</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D34" s="4">
         <v>37944</v>
@@ -2058,18 +2058,18 @@
         <v>97420</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D35" s="4">
         <v>39556</v>
@@ -2078,18 +2078,18 @@
         <v>110476</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D36" s="4">
         <v>43530</v>
@@ -2098,18 +2098,18 @@
         <v>164236</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D37" s="4">
         <v>51842</v>
@@ -2118,18 +2118,18 @@
         <v>282508</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="D38" s="4">
         <v>21970</v>
@@ -2138,18 +2138,18 @@
         <v>62348</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D39" s="4">
         <v>22163</v>
@@ -2158,18 +2158,18 @@
         <v>77196</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D40" s="4">
         <v>24389</v>
@@ -2178,18 +2178,18 @@
         <v>113932</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="D41" s="4">
         <v>25748</v>
@@ -2198,18 +2198,18 @@
         <v>147468</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D42" s="4">
         <v>26630</v>
@@ -2218,18 +2218,18 @@
         <v>170060</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D43" s="4">
         <v>28660</v>
@@ -2238,18 +2238,18 @@
         <v>260300</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D44" s="4">
         <v>30019</v>
@@ -2258,18 +2258,18 @@
         <v>457612</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D45" s="4">
         <v>10096</v>
@@ -2278,18 +2278,18 @@
         <v>52876</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="4">
         <v>3642</v>
@@ -2298,18 +2298,18 @@
         <v>60044</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D47" s="4">
         <v>62364</v>
@@ -2318,18 +2318,18 @@
         <v>66700</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D48" s="4">
         <v>71353</v>
@@ -2338,18 +2338,18 @@
         <v>84364</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D49" s="4">
         <v>42198</v>
@@ -2358,18 +2358,18 @@
         <v>120972</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D50" s="4">
         <v>29072</v>
@@ -2378,18 +2378,18 @@
         <v>192908</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D51" s="4">
         <v>39392</v>
@@ -2398,18 +2398,18 @@
         <v>264844</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D52" s="4">
         <v>27372</v>
@@ -2418,18 +2418,18 @@
         <v>335500</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D53" s="4">
         <v>26468</v>
@@ -2438,18 +2438,18 @@
         <v>604300</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D54" s="4">
         <v>35959</v>
@@ -2458,18 +2458,18 @@
         <v>1063052</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D55" s="4">
         <v>26447</v>
@@ -2478,18 +2478,18 @@
         <v>1963916</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D56" s="4">
         <v>47610</v>
@@ -2498,18 +2498,18 @@
         <v>3810956</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="D57" s="4">
         <v>51329</v>
@@ -2518,18 +2518,18 @@
         <v>6843276</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="D58" s="4">
         <v>137078</v>
@@ -2538,18 +2538,18 @@
         <v>257932</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D59" s="4">
         <v>31440</v>
@@ -2558,18 +2558,18 @@
         <v>70540</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="D60" s="4">
         <v>29365</v>
@@ -2578,18 +2578,18 @@
         <v>89996</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D61" s="4">
         <v>26331</v>
@@ -2598,18 +2598,18 @@
         <v>127628</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D62" s="4">
         <v>26911</v>
@@ -2618,18 +2618,18 @@
         <v>165260</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D63" s="4">
         <v>26583</v>
@@ -2638,18 +2638,18 @@
         <v>202892</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D64" s="4">
         <v>30090</v>
@@ -2658,18 +2658,18 @@
         <v>341772</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D65" s="4">
         <v>35969</v>
@@ -2678,18 +2678,18 @@
         <v>626188</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D66" s="4">
         <v>63108</v>
@@ -2698,18 +2698,18 @@
         <v>1179660</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D67" s="4">
         <v>100277</v>
@@ -2718,18 +2718,18 @@
         <v>2237644</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D68" s="4">
         <v>724</v>
@@ -2738,18 +2738,18 @@
         <v>64396</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D69" s="4">
         <v>29099</v>
@@ -2758,18 +2758,18 @@
         <v>64396</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D70" s="4">
         <v>26249</v>
@@ -2778,18 +2778,18 @@
         <v>60300</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D71" s="4">
         <v>29102</v>
@@ -2798,18 +2798,18 @@
         <v>60300</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D72" s="4">
         <v>30149</v>
@@ -2818,18 +2818,18 @@
         <v>60300</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D73" s="4">
         <v>30816</v>
@@ -2838,18 +2838,18 @@
         <v>60300</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D74" s="4">
         <v>35261</v>
@@ -2858,18 +2858,18 @@
         <v>59020</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D75" s="4">
         <v>36759</v>
@@ -2878,18 +2878,18 @@
         <v>60300</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D76" s="4">
         <v>13669</v>
@@ -2898,7 +2898,7 @@
         <v>405900</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
